--- a/Rateios/energia.xlsx
+++ b/Rateios/energia.xlsx
@@ -1,41 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loliveira\PycharmProjects\Automação-de-Tarefas\Automacao-de-Tarefas\Rateios\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE5037D-CF99-4881-9A36-D88ECCCC6FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$61</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="124">
   <si>
     <t>Tipo de documento</t>
   </si>
@@ -82,97 +61,97 @@
     <t>RE</t>
   </si>
   <si>
-    <t>TITULO nº 247871586-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 247920287-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 248051253-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 248250477-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 249066222-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 249344198-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 144061636 22749 ELEKTRO ELETRICIDADE E S</t>
-  </si>
-  <si>
-    <t>TITULO nº 249358210-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 243966768-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 245657120-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 247287638-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 247371061-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 247744086-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 248865460-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 249029645-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 249645408-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 250174428-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 250184166-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 250735202-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 250868577-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 250237755-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 25188623-C 20517 CIA PAULISTA DE FORÇA E</t>
-  </si>
-  <si>
-    <t>TITULO nº 251271748-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 251250324-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 251886238-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 05/2022 21991 SUCOCITRICO CUTRALE LTDA</t>
-  </si>
-  <si>
-    <t>TITULO nº 249301671-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 249943012-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 250570921-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 250570922-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 250701847-C 20517 CIA PAULISTA DE FORÇA</t>
+    <t>TITULO nº 040853066-U 23622 ENERGISA SUL-SUDESTE -</t>
+  </si>
+  <si>
+    <t>TITULO nº 269518080-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 268158506-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 266796710-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 266909083-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 268157134-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 267394420-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 268144550-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 268169244-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 267875577-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 268131868-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 265385293-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 156024005 22749 ELEKTRO ELETRICIDADE E S</t>
+  </si>
+  <si>
+    <t>TITULO nº 269192016-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 269221365-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 269847416-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 269914446-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 270304241-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 270313185-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 270313319-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 270386767-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 268539061-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 268593295-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 271445489-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 263529791-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 09/2022 21991 SUCOCITRICO CUTRALE LTDA</t>
+  </si>
+  <si>
+    <t>TITULO nº 270279247-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 270279248-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 270270627-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 268744103-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 269623523-C 20517 CIA PAULISTA DE FORÇA</t>
   </si>
   <si>
     <t>615.03.1.1.22.02</t>
@@ -181,242 +160,242 @@
     <t>616.00.0.3.22.02</t>
   </si>
   <si>
-    <t>247871586</t>
-  </si>
-  <si>
-    <t>247920287</t>
-  </si>
-  <si>
-    <t>248051253</t>
-  </si>
-  <si>
-    <t>248250477</t>
-  </si>
-  <si>
-    <t>249066222</t>
-  </si>
-  <si>
-    <t>249344198</t>
-  </si>
-  <si>
-    <t>144061636</t>
-  </si>
-  <si>
-    <t>249358210</t>
-  </si>
-  <si>
-    <t>243966768</t>
-  </si>
-  <si>
-    <t>245657120</t>
-  </si>
-  <si>
-    <t>247287638</t>
-  </si>
-  <si>
-    <t>247371061</t>
-  </si>
-  <si>
-    <t>247744086</t>
-  </si>
-  <si>
-    <t>248865460</t>
-  </si>
-  <si>
-    <t>249029645</t>
-  </si>
-  <si>
-    <t>249645408</t>
-  </si>
-  <si>
-    <t>250174428</t>
-  </si>
-  <si>
-    <t>250184166</t>
-  </si>
-  <si>
-    <t>250735202</t>
-  </si>
-  <si>
-    <t>250868577</t>
-  </si>
-  <si>
-    <t>250237755</t>
-  </si>
-  <si>
-    <t>25188623-</t>
-  </si>
-  <si>
-    <t>251271748</t>
-  </si>
-  <si>
-    <t>251250324</t>
-  </si>
-  <si>
-    <t>251886238</t>
-  </si>
-  <si>
-    <t>05/2022 2</t>
-  </si>
-  <si>
-    <t>249301671</t>
-  </si>
-  <si>
-    <t>249943012</t>
-  </si>
-  <si>
-    <t>250570921</t>
-  </si>
-  <si>
-    <t>250570922</t>
-  </si>
-  <si>
-    <t>250701847</t>
+    <t>040853066</t>
+  </si>
+  <si>
+    <t>269518080</t>
+  </si>
+  <si>
+    <t>268158506</t>
+  </si>
+  <si>
+    <t>266796710</t>
+  </si>
+  <si>
+    <t>266909083</t>
+  </si>
+  <si>
+    <t>268157134</t>
+  </si>
+  <si>
+    <t>267394420</t>
+  </si>
+  <si>
+    <t>268144550</t>
+  </si>
+  <si>
+    <t>268169244</t>
+  </si>
+  <si>
+    <t>267875577</t>
+  </si>
+  <si>
+    <t>268131868</t>
+  </si>
+  <si>
+    <t>265385293</t>
+  </si>
+  <si>
+    <t>156024005</t>
+  </si>
+  <si>
+    <t>269192016</t>
+  </si>
+  <si>
+    <t>269221365</t>
+  </si>
+  <si>
+    <t>269847416</t>
+  </si>
+  <si>
+    <t>269914446</t>
+  </si>
+  <si>
+    <t>270304241</t>
+  </si>
+  <si>
+    <t>270313185</t>
+  </si>
+  <si>
+    <t>270313319</t>
+  </si>
+  <si>
+    <t>270386767</t>
+  </si>
+  <si>
+    <t>268539061</t>
+  </si>
+  <si>
+    <t>268593295</t>
+  </si>
+  <si>
+    <t>271445489</t>
+  </si>
+  <si>
+    <t>263529791</t>
+  </si>
+  <si>
+    <t>09/2022 2</t>
+  </si>
+  <si>
+    <t>270279247</t>
+  </si>
+  <si>
+    <t>270279248</t>
+  </si>
+  <si>
+    <t>270270627</t>
+  </si>
+  <si>
+    <t>268744103</t>
+  </si>
+  <si>
+    <t>269623523</t>
+  </si>
+  <si>
+    <t>CRT 163B, S/N1 CT SP 304</t>
+  </si>
+  <si>
+    <t>R PASSEIO DOS FLAMBOYANTS, 60 TRÍADE - TORRE 2 SA 302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R AROEIRAS, 511 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRT 191A, 230 </t>
   </si>
   <si>
     <t>R AFRICA, 111 AR GAS</t>
   </si>
   <si>
-    <t xml:space="preserve">CRT 191A, 230 </t>
+    <t>AV ALBERTO BENASSI, S/N1 KM 652 1</t>
+  </si>
+  <si>
+    <t>CRT 163B, S/N1 CT</t>
+  </si>
+  <si>
+    <t>CRT 110C, 149 DISTR DE GAS</t>
   </si>
   <si>
     <t>CRT 183C MARILIA DIRCEU, S/N1 CH GAS BRASILI</t>
   </si>
   <si>
-    <t xml:space="preserve">CRT 191B, 426 </t>
-  </si>
-  <si>
-    <t>CRT 163B, S/N1 CT</t>
-  </si>
-  <si>
-    <t>AV ALBERTO BENASSI, S/N1 KM 652 1</t>
-  </si>
-  <si>
-    <t>CRT 163B, S/N1 CT SP 304</t>
+    <t>CRT 108A, 65 LT 1A</t>
+  </si>
+  <si>
+    <t>CRT 165D, 46 GAS NATURAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRT 139B, S/N1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRT 162B BAIRRO RIBEIRAOZINHO, 118 </t>
+  </si>
+  <si>
+    <t>RDV ANTONIO MACHADO SANTANA, S/N1 KM 310 E 500M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDV BRIG FARIA LIMA, 297 </t>
+  </si>
+  <si>
+    <t>VIA AUGUSTO BAMBOZZI, S/N1 DISTR DE GAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R DR AXEL HERMANN BRESLAU, 11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R MARCOS TOQUETAO, S/N1 </t>
+  </si>
+  <si>
+    <t>R JOSE WILSON VICENTINO, S/N1 AZ BR153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R JOAO AUGUSTO CIRELLI, 670 </t>
   </si>
   <si>
     <t>AV GETULIO VARGAS, 18-046 SA 110</t>
   </si>
   <si>
-    <t>AV IPIRANGA, 85 SA 14</t>
-  </si>
-  <si>
-    <t>R PASSEIO DOS FLAMBOYANTS, 60 TRÍADE - TORRE 2 SA 302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R AROEIRAS, 511 </t>
-  </si>
-  <si>
-    <t>CRT 110C, 149 DISTR DE GAS</t>
-  </si>
-  <si>
-    <t>R JOSE WILSON VICENTINO, S/N1 AZ BR153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R MARCOS TOQUETAO, S/N1 </t>
-  </si>
-  <si>
-    <t>CRT 165D, 46 GAS NATURAL</t>
-  </si>
-  <si>
-    <t>CRT 108A, 65 LT 1A</t>
-  </si>
-  <si>
-    <t>RDV ANTONIO MACHADO SANTANA, S/N1 KM 310 E 500M</t>
-  </si>
-  <si>
-    <t>VIA AUGUSTO BAMBOZZI, S/N1 DISTR DE GAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R DR AXEL HERMANN BRESLAU, 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RDV BRIG FARIA LIMA, 297 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRT 139B, S/N1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRT 162B BAIRRO RIBEIRAOZINHO, 118 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R JOAO AUGUSTO CIRELLI, 670 </t>
+    <t>AV MARIA DE JESUS CONDEIXA, 600 SA 335</t>
+  </si>
+  <si>
+    <t>AV MARIA DE JESUS CONDEIXA, 600 SA 333</t>
+  </si>
+  <si>
+    <t>AV MARIA DE JESUS CONDEIXA, 600 SA 331</t>
   </si>
   <si>
     <t>AV MJ ANTONIO MARIANO BORBA, 802 CA A CT A</t>
   </si>
   <si>
-    <t>R CAMPOS SALES, 97 SA 01</t>
-  </si>
-  <si>
-    <t>AV MARIA DE JESUS CONDEIXA, 600 SA 335</t>
-  </si>
-  <si>
-    <t>AV MARIA DE JESUS CONDEIXA, 600 SA 333</t>
-  </si>
-  <si>
-    <t>AV MARIA DE JESUS CONDEIXA, 600 SA 331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LENCOIS PAULISTA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAO CARLOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARILIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBITINGA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARARAQUARA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAURU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BILAC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUAICARA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARACATUBA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOA ESPERANCA DO SUL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALPARAISO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIBEIRAO PRETO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATAO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITAPOLIS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IACANGA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCALVADO </t>
-  </si>
-  <si>
-    <t>CUTRALE</t>
+    <t>Rod Assis Chateaubriand S/N, KM 455 - Bairro: Vila Maria</t>
+  </si>
+  <si>
+    <t>TRIFASICO</t>
+  </si>
+  <si>
+    <t>(+) OUTROS ACRÉSCIMOS</t>
+  </si>
+  <si>
+    <t>IBITINGA</t>
+  </si>
+  <si>
+    <t>SAO CARLOS</t>
+  </si>
+  <si>
+    <t>ARARAQUARA</t>
+  </si>
+  <si>
+    <t>LENCOIS PAULISTA</t>
+  </si>
+  <si>
+    <t>BILAC</t>
+  </si>
+  <si>
+    <t>MARILIA</t>
+  </si>
+  <si>
+    <t>VALPARAISO</t>
+  </si>
+  <si>
+    <t>BOA ESPERANCA DO SUL</t>
+  </si>
+  <si>
+    <t>ITAPOLIS</t>
+  </si>
+  <si>
+    <t>IACANGA</t>
+  </si>
+  <si>
+    <t>RIBEIRAO PRETO</t>
+  </si>
+  <si>
+    <t>MATAO</t>
+  </si>
+  <si>
+    <t>BAURU</t>
+  </si>
+  <si>
+    <t>ARACATUBA</t>
+  </si>
+  <si>
+    <t>GUAICARA</t>
+  </si>
+  <si>
+    <t>DESCALVADO</t>
+  </si>
+  <si>
+    <t>COBRADO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,19 +459,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -534,7 +505,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,27 +537,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -618,24 +571,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -811,33 +746,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E59"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,7 +797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -889,16 +805,16 @@
         <v>14</v>
       </c>
       <c r="C2" s="2">
-        <v>44716</v>
+        <v>44845</v>
       </c>
       <c r="D2" s="2">
-        <v>44715</v>
+        <v>44840</v>
       </c>
       <c r="E2">
-        <v>-203.54</v>
+        <v>202.36</v>
       </c>
       <c r="F2">
-        <v>5100080004</v>
+        <v>5100081967</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -915,14 +831,8 @@
       <c r="M2" t="s">
         <v>48</v>
       </c>
-      <c r="N2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -930,16 +840,16 @@
         <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>44716</v>
+        <v>44845</v>
       </c>
       <c r="D3" s="2">
-        <v>44715</v>
+        <v>44840</v>
       </c>
       <c r="E3">
-        <v>-9.4</v>
+        <v>10.26</v>
       </c>
       <c r="F3">
-        <v>5100080004</v>
+        <v>5100081967</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -956,14 +866,8 @@
       <c r="M3" t="s">
         <v>48</v>
       </c>
-      <c r="N3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -971,19 +875,19 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>44716</v>
+        <v>44852</v>
       </c>
       <c r="D4" s="2">
-        <v>44715</v>
+        <v>44851</v>
       </c>
       <c r="E4">
-        <v>203.54</v>
+        <v>831.3</v>
       </c>
       <c r="F4">
-        <v>5100080005</v>
+        <v>5100082039</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>6151122020</v>
@@ -995,16 +899,10 @@
         <v>11310</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1012,19 +910,19 @@
         <v>14</v>
       </c>
       <c r="C5" s="2">
-        <v>44716</v>
+        <v>44843</v>
       </c>
       <c r="D5" s="2">
-        <v>44715</v>
+        <v>44842</v>
       </c>
       <c r="E5">
-        <v>9.4</v>
+        <v>69.37</v>
       </c>
       <c r="F5">
-        <v>5100080005</v>
+        <v>5100082040</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>6151122020</v>
@@ -1036,7 +934,7 @@
         <v>11310</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
         <v>79</v>
@@ -1045,7 +943,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1053,19 +951,19 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>44716</v>
+        <v>44843</v>
       </c>
       <c r="D6" s="2">
-        <v>44715</v>
+        <v>44842</v>
       </c>
       <c r="E6">
-        <v>80.11</v>
+        <v>12.24</v>
       </c>
       <c r="F6">
-        <v>5100079910</v>
+        <v>5100082040</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>6151122020</v>
@@ -1077,16 +975,16 @@
         <v>11310</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1094,19 +992,19 @@
         <v>14</v>
       </c>
       <c r="C7" s="2">
-        <v>44718</v>
+        <v>44838</v>
       </c>
       <c r="D7" s="2">
-        <v>44717</v>
+        <v>44837</v>
       </c>
       <c r="E7">
-        <v>204.24</v>
+        <v>117.31</v>
       </c>
       <c r="F7">
-        <v>5100079911</v>
+        <v>5100081942</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>6151122020</v>
@@ -1118,16 +1016,16 @@
         <v>11310</v>
       </c>
       <c r="M7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1135,16 +1033,16 @@
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>44719</v>
+        <v>44839</v>
       </c>
       <c r="D8" s="2">
-        <v>44718</v>
+        <v>44838</v>
       </c>
       <c r="E8">
-        <v>216.01</v>
+        <v>565.6</v>
       </c>
       <c r="F8">
-        <v>5100079912</v>
+        <v>5100081943</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
@@ -1162,13 +1060,13 @@
         <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1176,19 +1074,19 @@
         <v>14</v>
       </c>
       <c r="C9" s="2">
-        <v>44722</v>
+        <v>44839</v>
       </c>
       <c r="D9" s="2">
-        <v>44721</v>
+        <v>44838</v>
       </c>
       <c r="E9">
-        <v>89.35</v>
+        <v>-565.6</v>
       </c>
       <c r="F9">
-        <v>5100079913</v>
+        <v>5100081996</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9">
         <v>6151122020</v>
@@ -1200,16 +1098,16 @@
         <v>11310</v>
       </c>
       <c r="M9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1217,16 +1115,16 @@
         <v>14</v>
       </c>
       <c r="C10" s="2">
-        <v>44722</v>
+        <v>44838</v>
       </c>
       <c r="D10" s="2">
-        <v>44721</v>
+        <v>44837</v>
       </c>
       <c r="E10">
-        <v>14.28</v>
+        <v>565.59</v>
       </c>
       <c r="F10">
-        <v>5100079913</v>
+        <v>5100081997</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
@@ -1244,13 +1142,13 @@
         <v>52</v>
       </c>
       <c r="N10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1258,19 +1156,19 @@
         <v>14</v>
       </c>
       <c r="C11" s="2">
-        <v>44716</v>
+        <v>44845</v>
       </c>
       <c r="D11" s="2">
-        <v>44715</v>
+        <v>44842</v>
       </c>
       <c r="E11">
-        <v>203.54</v>
+        <v>367.19</v>
       </c>
       <c r="F11">
-        <v>5100079916</v>
+        <v>5100081998</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H11">
         <v>6151122020</v>
@@ -1282,16 +1180,16 @@
         <v>11310</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1299,19 +1197,19 @@
         <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>44716</v>
+        <v>44840</v>
       </c>
       <c r="D12" s="2">
-        <v>44715</v>
+        <v>44839</v>
       </c>
       <c r="E12">
-        <v>9.4</v>
+        <v>179.72</v>
       </c>
       <c r="F12">
-        <v>5100079916</v>
+        <v>5100082010</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H12">
         <v>6151122020</v>
@@ -1323,16 +1221,16 @@
         <v>11310</v>
       </c>
       <c r="M12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="N12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1340,19 +1238,19 @@
         <v>14</v>
       </c>
       <c r="C13" s="2">
-        <v>44725</v>
+        <v>44840</v>
       </c>
       <c r="D13" s="2">
-        <v>44722</v>
+        <v>44839</v>
       </c>
       <c r="E13">
-        <v>361.33</v>
+        <v>9.4</v>
       </c>
       <c r="F13">
-        <v>5100079940</v>
+        <v>5100082010</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13">
         <v>6151122020</v>
@@ -1364,16 +1262,16 @@
         <v>11310</v>
       </c>
       <c r="M13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1381,19 +1279,19 @@
         <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>44725</v>
+        <v>44842</v>
       </c>
       <c r="D14" s="2">
-        <v>44722</v>
+        <v>44841</v>
       </c>
       <c r="E14">
-        <v>43.7</v>
+        <v>690.61</v>
       </c>
       <c r="F14">
-        <v>5100079940</v>
+        <v>5100082011</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H14">
         <v>6151122020</v>
@@ -1405,16 +1303,16 @@
         <v>11310</v>
       </c>
       <c r="M14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N14" t="s">
         <v>84</v>
       </c>
       <c r="O14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1422,19 +1320,19 @@
         <v>14</v>
       </c>
       <c r="C15" s="2">
-        <v>44721</v>
+        <v>44842</v>
       </c>
       <c r="D15" s="2">
-        <v>44720</v>
+        <v>44841</v>
       </c>
       <c r="E15">
-        <v>214.69</v>
+        <v>84.23</v>
       </c>
       <c r="F15">
-        <v>5100079941</v>
+        <v>5100082011</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15">
         <v>6151122020</v>
@@ -1446,10 +1344,16 @@
         <v>11310</v>
       </c>
       <c r="M15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="N15" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1457,19 +1361,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>44721</v>
+        <v>44844</v>
       </c>
       <c r="D16" s="2">
-        <v>44720</v>
+        <v>44843</v>
       </c>
       <c r="E16">
-        <v>76.349999999999994</v>
+        <v>69.37</v>
       </c>
       <c r="F16">
-        <v>5100079941</v>
+        <v>5100082012</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H16">
         <v>6151122020</v>
@@ -1481,10 +1385,16 @@
         <v>11310</v>
       </c>
       <c r="M16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="N16" t="s">
+        <v>85</v>
+      </c>
+      <c r="O16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1492,19 +1402,19 @@
         <v>14</v>
       </c>
       <c r="C17" s="2">
-        <v>44723</v>
+        <v>44844</v>
       </c>
       <c r="D17" s="2">
-        <v>44722</v>
+        <v>44843</v>
       </c>
       <c r="E17">
-        <v>78.540000000000006</v>
+        <v>12.24</v>
       </c>
       <c r="F17">
-        <v>5100079942</v>
+        <v>5100082012</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17">
         <v>6151122020</v>
@@ -1516,16 +1426,16 @@
         <v>11310</v>
       </c>
       <c r="M17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N17" t="s">
         <v>85</v>
       </c>
       <c r="O17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1533,19 +1443,19 @@
         <v>14</v>
       </c>
       <c r="C18" s="2">
-        <v>44723</v>
+        <v>44842</v>
       </c>
       <c r="D18" s="2">
-        <v>44722</v>
+        <v>44840</v>
       </c>
       <c r="E18">
-        <v>12.55</v>
+        <v>485.72</v>
       </c>
       <c r="F18">
-        <v>5100079942</v>
+        <v>5100082013</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H18">
         <v>6151122020</v>
@@ -1557,16 +1467,16 @@
         <v>11310</v>
       </c>
       <c r="M18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1574,19 +1484,19 @@
         <v>14</v>
       </c>
       <c r="C19" s="2">
-        <v>44715</v>
+        <v>44842</v>
       </c>
       <c r="D19" s="2">
-        <v>44692</v>
+        <v>44840</v>
       </c>
       <c r="E19">
-        <v>57.03</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F19">
-        <v>5100079871</v>
+        <v>5100082013</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19">
         <v>6151122020</v>
@@ -1598,16 +1508,16 @@
         <v>11310</v>
       </c>
       <c r="M19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N19" t="s">
         <v>86</v>
       </c>
       <c r="O19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1615,19 +1525,19 @@
         <v>14</v>
       </c>
       <c r="C20" s="2">
-        <v>44715</v>
+        <v>44842</v>
       </c>
       <c r="D20" s="2">
-        <v>44692</v>
+        <v>44841</v>
       </c>
       <c r="E20">
-        <v>14.59</v>
+        <v>159.61</v>
       </c>
       <c r="F20">
-        <v>5100079871</v>
+        <v>5100082014</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H20">
         <v>6151122020</v>
@@ -1639,16 +1549,16 @@
         <v>11310</v>
       </c>
       <c r="M20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1656,19 +1566,19 @@
         <v>14</v>
       </c>
       <c r="C21" s="2">
-        <v>44715</v>
+        <v>44851</v>
       </c>
       <c r="D21" s="2">
-        <v>44701</v>
+        <v>44824</v>
       </c>
       <c r="E21">
-        <v>58.5</v>
+        <v>68.47</v>
       </c>
       <c r="F21">
-        <v>5100079876</v>
+        <v>5100082049</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H21">
         <v>6151122020</v>
@@ -1680,16 +1590,10 @@
         <v>11310</v>
       </c>
       <c r="M21" t="s">
-        <v>57</v>
-      </c>
-      <c r="N21" t="s">
-        <v>87</v>
-      </c>
-      <c r="O21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1697,19 +1601,19 @@
         <v>14</v>
       </c>
       <c r="C22" s="2">
-        <v>44715</v>
+        <v>44851</v>
       </c>
       <c r="D22" s="2">
-        <v>44701</v>
+        <v>44824</v>
       </c>
       <c r="E22">
-        <v>10.15</v>
+        <v>11.41</v>
       </c>
       <c r="F22">
-        <v>5100079876</v>
+        <v>5100082049</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H22">
         <v>6151122020</v>
@@ -1721,16 +1625,10 @@
         <v>11310</v>
       </c>
       <c r="M22" t="s">
-        <v>57</v>
-      </c>
-      <c r="N22" t="s">
-        <v>87</v>
-      </c>
-      <c r="O22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1738,19 +1636,19 @@
         <v>14</v>
       </c>
       <c r="C23" s="2">
-        <v>44714</v>
+        <v>44845</v>
       </c>
       <c r="D23" s="2">
-        <v>44713</v>
+        <v>44844</v>
       </c>
       <c r="E23">
-        <v>106.12</v>
+        <v>175.44</v>
       </c>
       <c r="F23">
-        <v>5100079877</v>
+        <v>5100082077</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H23">
         <v>6151122020</v>
@@ -1762,16 +1660,10 @@
         <v>11310</v>
       </c>
       <c r="M23" t="s">
-        <v>58</v>
-      </c>
-      <c r="N23" t="s">
-        <v>88</v>
-      </c>
-      <c r="O23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1779,19 +1671,19 @@
         <v>14</v>
       </c>
       <c r="C24" s="2">
-        <v>44714</v>
+        <v>44845</v>
       </c>
       <c r="D24" s="2">
-        <v>44713</v>
+        <v>44844</v>
       </c>
       <c r="E24">
-        <v>442.25</v>
+        <v>68.8</v>
       </c>
       <c r="F24">
-        <v>5100079878</v>
+        <v>5100082077</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H24">
         <v>6151122020</v>
@@ -1803,16 +1695,10 @@
         <v>11310</v>
       </c>
       <c r="M24" t="s">
-        <v>59</v>
-      </c>
-      <c r="N24" t="s">
-        <v>89</v>
-      </c>
-      <c r="O24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1820,19 +1706,19 @@
         <v>14</v>
       </c>
       <c r="C25" s="2">
-        <v>44714</v>
+        <v>44849</v>
       </c>
       <c r="D25" s="2">
-        <v>44713</v>
+        <v>44848</v>
       </c>
       <c r="E25">
-        <v>53.49</v>
+        <v>508.62</v>
       </c>
       <c r="F25">
-        <v>5100079878</v>
+        <v>5100082154</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H25">
         <v>6151122020</v>
@@ -1844,16 +1730,16 @@
         <v>11310</v>
       </c>
       <c r="M25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1861,19 +1747,19 @@
         <v>14</v>
       </c>
       <c r="C26" s="2">
-        <v>44715</v>
+        <v>44849</v>
       </c>
       <c r="D26" s="2">
-        <v>44714</v>
+        <v>44848</v>
       </c>
       <c r="E26">
-        <v>95.03</v>
+        <v>140.14</v>
       </c>
       <c r="F26">
-        <v>5100079879</v>
+        <v>5100082155</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>6151122020</v>
@@ -1885,16 +1771,16 @@
         <v>11310</v>
       </c>
       <c r="M26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1902,19 +1788,19 @@
         <v>14</v>
       </c>
       <c r="C27" s="2">
-        <v>44715</v>
+        <v>44849</v>
       </c>
       <c r="D27" s="2">
-        <v>44714</v>
+        <v>44848</v>
       </c>
       <c r="E27">
-        <v>7.93</v>
+        <v>18</v>
       </c>
       <c r="F27">
-        <v>5100079879</v>
+        <v>5100082155</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>6151122020</v>
@@ -1926,16 +1812,16 @@
         <v>11310</v>
       </c>
       <c r="M27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1943,19 +1829,19 @@
         <v>14</v>
       </c>
       <c r="C28" s="2">
-        <v>44722</v>
+        <v>44854</v>
       </c>
       <c r="D28" s="2">
-        <v>44721</v>
+        <v>44853</v>
       </c>
       <c r="E28">
-        <v>85.6</v>
+        <v>147.1</v>
       </c>
       <c r="F28">
-        <v>5100079987</v>
+        <v>5100082157</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>6151122020</v>
@@ -1967,16 +1853,16 @@
         <v>11310</v>
       </c>
       <c r="M28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1984,19 +1870,19 @@
         <v>14</v>
       </c>
       <c r="C29" s="2">
-        <v>44722</v>
+        <v>44854</v>
       </c>
       <c r="D29" s="2">
-        <v>44721</v>
+        <v>44853</v>
       </c>
       <c r="E29">
-        <v>3.7</v>
+        <v>16.28</v>
       </c>
       <c r="F29">
-        <v>5100079987</v>
+        <v>5100082157</v>
       </c>
       <c r="G29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>6151122020</v>
@@ -2008,16 +1894,16 @@
         <v>11310</v>
       </c>
       <c r="M29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2025,19 +1911,19 @@
         <v>14</v>
       </c>
       <c r="C30" s="2">
-        <v>44722</v>
+        <v>44854</v>
       </c>
       <c r="D30" s="2">
-        <v>44721</v>
+        <v>44853</v>
       </c>
       <c r="E30">
-        <v>78.540000000000006</v>
+        <v>97.13</v>
       </c>
       <c r="F30">
-        <v>5100079988</v>
+        <v>5100082158</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>6151122020</v>
@@ -2049,16 +1935,16 @@
         <v>11310</v>
       </c>
       <c r="M30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2066,19 +1952,19 @@
         <v>14</v>
       </c>
       <c r="C31" s="2">
-        <v>44722</v>
+        <v>44854</v>
       </c>
       <c r="D31" s="2">
-        <v>44721</v>
+        <v>44853</v>
       </c>
       <c r="E31">
-        <v>9.17</v>
+        <v>4.63</v>
       </c>
       <c r="F31">
-        <v>5100079988</v>
+        <v>5100082158</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>6151122020</v>
@@ -2090,16 +1976,16 @@
         <v>11310</v>
       </c>
       <c r="M31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2107,19 +1993,19 @@
         <v>14</v>
       </c>
       <c r="C32" s="2">
-        <v>44726</v>
+        <v>44855</v>
       </c>
       <c r="D32" s="2">
-        <v>44725</v>
+        <v>44854</v>
       </c>
       <c r="E32">
-        <v>78.540000000000006</v>
+        <v>158.19</v>
       </c>
       <c r="F32">
-        <v>5100079990</v>
+        <v>5100082159</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>6151122020</v>
@@ -2131,16 +2017,16 @@
         <v>11310</v>
       </c>
       <c r="M32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2148,19 +2034,19 @@
         <v>14</v>
       </c>
       <c r="C33" s="2">
-        <v>44726</v>
+        <v>44855</v>
       </c>
       <c r="D33" s="2">
-        <v>44725</v>
+        <v>44854</v>
       </c>
       <c r="E33">
-        <v>18</v>
+        <v>10.74</v>
       </c>
       <c r="F33">
-        <v>5100079990</v>
+        <v>5100082159</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>6151122020</v>
@@ -2172,16 +2058,16 @@
         <v>11310</v>
       </c>
       <c r="M33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2189,19 +2075,19 @@
         <v>14</v>
       </c>
       <c r="C34" s="2">
-        <v>44728</v>
+        <v>44855</v>
       </c>
       <c r="D34" s="2">
-        <v>44728</v>
+        <v>44854</v>
       </c>
       <c r="E34">
-        <v>612.71</v>
+        <v>259.53</v>
       </c>
       <c r="F34">
-        <v>5100079991</v>
+        <v>5100082160</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>6151122020</v>
@@ -2213,16 +2099,16 @@
         <v>11310</v>
       </c>
       <c r="M34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2230,19 +2116,19 @@
         <v>14</v>
       </c>
       <c r="C35" s="2">
-        <v>44729</v>
+        <v>44855</v>
       </c>
       <c r="D35" s="2">
-        <v>44729</v>
+        <v>44854</v>
       </c>
       <c r="E35">
-        <v>164.96</v>
+        <v>69.37</v>
       </c>
       <c r="F35">
-        <v>5100079992</v>
+        <v>5100082161</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>6151122020</v>
@@ -2254,16 +2140,16 @@
         <v>11310</v>
       </c>
       <c r="M35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O35" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2271,19 +2157,19 @@
         <v>14</v>
       </c>
       <c r="C36" s="2">
-        <v>44729</v>
+        <v>44855</v>
       </c>
       <c r="D36" s="2">
-        <v>44729</v>
+        <v>44854</v>
       </c>
       <c r="E36">
-        <v>10.74</v>
+        <v>7.94</v>
       </c>
       <c r="F36">
-        <v>5100079992</v>
+        <v>5100082161</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>6151122020</v>
@@ -2295,16 +2181,16 @@
         <v>11310</v>
       </c>
       <c r="M36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O36" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2312,19 +2198,19 @@
         <v>14</v>
       </c>
       <c r="C37" s="2">
-        <v>44734</v>
+        <v>44856</v>
       </c>
       <c r="D37" s="2">
-        <v>44733</v>
+        <v>44855</v>
       </c>
       <c r="E37">
-        <v>1239.1600000000001</v>
+        <v>188.74</v>
       </c>
       <c r="F37">
-        <v>5100080020</v>
+        <v>5100082162</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H37">
         <v>6151122020</v>
@@ -2336,16 +2222,16 @@
         <v>11310</v>
       </c>
       <c r="M37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2353,19 +2239,19 @@
         <v>14</v>
       </c>
       <c r="C38" s="2">
-        <v>44734</v>
+        <v>44856</v>
       </c>
       <c r="D38" s="2">
-        <v>44733</v>
+        <v>44855</v>
       </c>
       <c r="E38">
-        <v>36.49</v>
+        <v>10.16</v>
       </c>
       <c r="F38">
-        <v>5100080020</v>
+        <v>5100082162</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>6151122020</v>
@@ -2377,16 +2263,16 @@
         <v>11310</v>
       </c>
       <c r="M38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O38" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2394,19 +2280,19 @@
         <v>14</v>
       </c>
       <c r="C39" s="2">
-        <v>44735</v>
+        <v>44846</v>
       </c>
       <c r="D39" s="2">
-        <v>44734</v>
+        <v>44845</v>
       </c>
       <c r="E39">
-        <v>139.82</v>
+        <v>69.37</v>
       </c>
       <c r="F39">
-        <v>5100080021</v>
+        <v>5100082060</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>6151122020</v>
@@ -2418,16 +2304,16 @@
         <v>11310</v>
       </c>
       <c r="M39" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2435,19 +2321,19 @@
         <v>14</v>
       </c>
       <c r="C40" s="2">
-        <v>44735</v>
+        <v>44846</v>
       </c>
       <c r="D40" s="2">
-        <v>44734</v>
+        <v>44845</v>
       </c>
       <c r="E40">
-        <v>14.59</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F40">
-        <v>5100080021</v>
+        <v>5100082060</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <v>6151122020</v>
@@ -2459,16 +2345,16 @@
         <v>11310</v>
       </c>
       <c r="M40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2476,19 +2362,19 @@
         <v>14</v>
       </c>
       <c r="C41" s="2">
-        <v>44733</v>
+        <v>44846</v>
       </c>
       <c r="D41" s="2">
-        <v>44732</v>
+        <v>44845</v>
       </c>
       <c r="E41">
-        <v>78.540000000000006</v>
+        <v>114.48</v>
       </c>
       <c r="F41">
-        <v>5100080011</v>
+        <v>5100082061</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>6151122020</v>
@@ -2500,16 +2386,16 @@
         <v>11310</v>
       </c>
       <c r="M41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2517,19 +2403,19 @@
         <v>14</v>
       </c>
       <c r="C42" s="2">
-        <v>44741</v>
+        <v>44846</v>
       </c>
       <c r="D42" s="2">
-        <v>44740</v>
+        <v>44845</v>
       </c>
       <c r="E42">
-        <v>189.31</v>
+        <v>5.46</v>
       </c>
       <c r="F42">
-        <v>5100080092</v>
+        <v>5100082061</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H42">
         <v>6151122020</v>
@@ -2541,10 +2427,16 @@
         <v>11310</v>
       </c>
       <c r="M42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="N42" t="s">
+        <v>97</v>
+      </c>
+      <c r="O42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2552,19 +2444,19 @@
         <v>14</v>
       </c>
       <c r="C43" s="2">
-        <v>44736</v>
+        <v>44862</v>
       </c>
       <c r="D43" s="2">
-        <v>44735</v>
+        <v>44861</v>
       </c>
       <c r="E43">
-        <v>140.6</v>
+        <v>155.42</v>
       </c>
       <c r="F43">
-        <v>5100080056</v>
+        <v>5100082361</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H43">
         <v>6151122020</v>
@@ -2576,16 +2468,16 @@
         <v>11310</v>
       </c>
       <c r="M43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2593,40 +2485,40 @@
         <v>14</v>
       </c>
       <c r="C44" s="2">
-        <v>44736</v>
+        <v>44838</v>
       </c>
       <c r="D44" s="2">
-        <v>44735</v>
+        <v>44813</v>
       </c>
       <c r="E44">
-        <v>16.690000000000001</v>
+        <v>114.24</v>
       </c>
       <c r="F44">
-        <v>5100080056</v>
+        <v>5100081928</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H44">
-        <v>6151122020</v>
+        <v>6160322020</v>
       </c>
       <c r="I44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J44">
         <v>11310</v>
       </c>
       <c r="M44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N44" t="s">
         <v>99</v>
       </c>
       <c r="O44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2634,40 +2526,40 @@
         <v>14</v>
       </c>
       <c r="C45" s="2">
-        <v>44736</v>
+        <v>44838</v>
       </c>
       <c r="D45" s="2">
-        <v>44735</v>
+        <v>44813</v>
       </c>
       <c r="E45">
-        <v>85.6</v>
+        <v>10.58</v>
       </c>
       <c r="F45">
-        <v>5100080057</v>
+        <v>5100081928</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H45">
-        <v>6151122020</v>
+        <v>6160322020</v>
       </c>
       <c r="I45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J45">
         <v>11310</v>
       </c>
       <c r="M45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2675,40 +2567,34 @@
         <v>14</v>
       </c>
       <c r="C46" s="2">
-        <v>44736</v>
+        <v>44844</v>
       </c>
       <c r="D46" s="2">
-        <v>44735</v>
+        <v>44844</v>
       </c>
       <c r="E46">
-        <v>3.7</v>
+        <v>26882.16</v>
       </c>
       <c r="F46">
-        <v>5100080057</v>
+        <v>5100081969</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H46">
-        <v>6151122020</v>
+        <v>6160322020</v>
       </c>
       <c r="I46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J46">
         <v>11310</v>
       </c>
       <c r="M46" t="s">
-        <v>71</v>
-      </c>
-      <c r="N46" t="s">
-        <v>100</v>
-      </c>
-      <c r="O46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2716,34 +2602,40 @@
         <v>14</v>
       </c>
       <c r="C47" s="2">
-        <v>44741</v>
+        <v>44855</v>
       </c>
       <c r="D47" s="2">
-        <v>44740</v>
+        <v>44854</v>
       </c>
       <c r="E47">
-        <v>-189.31</v>
+        <v>124.71</v>
       </c>
       <c r="F47">
-        <v>5100080097</v>
+        <v>5100082147</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H47">
-        <v>6151122020</v>
+        <v>6160322020</v>
       </c>
       <c r="I47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J47">
         <v>11310</v>
       </c>
       <c r="M47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="N47" t="s">
+        <v>100</v>
+      </c>
+      <c r="O47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2751,40 +2643,40 @@
         <v>14</v>
       </c>
       <c r="C48" s="2">
-        <v>44741</v>
+        <v>44855</v>
       </c>
       <c r="D48" s="2">
-        <v>44740</v>
+        <v>44854</v>
       </c>
       <c r="E48">
-        <v>189.3</v>
+        <v>10.74</v>
       </c>
       <c r="F48">
-        <v>5100080098</v>
+        <v>5100082147</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H48">
-        <v>6151122020</v>
+        <v>6160322020</v>
       </c>
       <c r="I48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J48">
         <v>11310</v>
       </c>
       <c r="M48" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2792,19 +2684,19 @@
         <v>14</v>
       </c>
       <c r="C49" s="2">
-        <v>44722</v>
+        <v>44855</v>
       </c>
       <c r="D49" s="2">
-        <v>44722</v>
+        <v>44854</v>
       </c>
       <c r="E49">
-        <v>33959.980000000003</v>
+        <v>233.84</v>
       </c>
       <c r="F49">
-        <v>5100079905</v>
+        <v>5100082148</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H49">
         <v>6160322020</v>
@@ -2816,13 +2708,16 @@
         <v>11310</v>
       </c>
       <c r="M49" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="N49" t="s">
+        <v>101</v>
       </c>
       <c r="O49" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2830,19 +2725,19 @@
         <v>14</v>
       </c>
       <c r="C50" s="2">
-        <v>44723</v>
+        <v>44855</v>
       </c>
       <c r="D50" s="2">
-        <v>44722</v>
+        <v>44854</v>
       </c>
       <c r="E50">
-        <v>210.52</v>
+        <v>10.74</v>
       </c>
       <c r="F50">
-        <v>5100079989</v>
+        <v>5100082148</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H50">
         <v>6160322020</v>
@@ -2854,16 +2749,16 @@
         <v>11310</v>
       </c>
       <c r="M50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O50" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2871,19 +2766,19 @@
         <v>14</v>
       </c>
       <c r="C51" s="2">
-        <v>44723</v>
+        <v>44855</v>
       </c>
       <c r="D51" s="2">
-        <v>44722</v>
+        <v>44854</v>
       </c>
       <c r="E51">
-        <v>25.46</v>
+        <v>113.98</v>
       </c>
       <c r="F51">
-        <v>5100079989</v>
+        <v>5100082149</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H51">
         <v>6160322020</v>
@@ -2895,16 +2790,16 @@
         <v>11310</v>
       </c>
       <c r="M51" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N51" t="s">
         <v>102</v>
       </c>
       <c r="O51" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2912,19 +2807,19 @@
         <v>14</v>
       </c>
       <c r="C52" s="2">
-        <v>44728</v>
+        <v>44855</v>
       </c>
       <c r="D52" s="2">
-        <v>44727</v>
+        <v>44854</v>
       </c>
       <c r="E52">
-        <v>304.88</v>
+        <v>10.74</v>
       </c>
       <c r="F52">
-        <v>5100080009</v>
+        <v>5100082149</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H52">
         <v>6160322020</v>
@@ -2936,16 +2831,16 @@
         <v>11310</v>
       </c>
       <c r="M52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O52" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2953,19 +2848,19 @@
         <v>14</v>
       </c>
       <c r="C53" s="2">
-        <v>44728</v>
+        <v>44848</v>
       </c>
       <c r="D53" s="2">
-        <v>44727</v>
+        <v>44847</v>
       </c>
       <c r="E53">
-        <v>9.17</v>
+        <v>230.37</v>
       </c>
       <c r="F53">
-        <v>5100080009</v>
+        <v>5100082152</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H53">
         <v>6160322020</v>
@@ -2977,16 +2872,16 @@
         <v>11310</v>
       </c>
       <c r="M53" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N53" t="s">
         <v>103</v>
       </c>
       <c r="O53" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2994,19 +2889,19 @@
         <v>14</v>
       </c>
       <c r="C54" s="2">
-        <v>44734</v>
+        <v>44848</v>
       </c>
       <c r="D54" s="2">
-        <v>44733</v>
+        <v>44847</v>
       </c>
       <c r="E54">
-        <v>124.43</v>
+        <v>30.76</v>
       </c>
       <c r="F54">
-        <v>5100080012</v>
+        <v>5100082152</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H54">
         <v>6160322020</v>
@@ -3018,16 +2913,16 @@
         <v>11310</v>
       </c>
       <c r="M54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O54" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3035,19 +2930,19 @@
         <v>14</v>
       </c>
       <c r="C55" s="2">
-        <v>44734</v>
+        <v>44859</v>
       </c>
       <c r="D55" s="2">
-        <v>44733</v>
+        <v>44852</v>
       </c>
       <c r="E55">
-        <v>10.74</v>
+        <v>312.24</v>
       </c>
       <c r="F55">
-        <v>5100080012</v>
+        <v>5100082191</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H55">
         <v>6160322020</v>
@@ -3059,16 +2954,10 @@
         <v>11310</v>
       </c>
       <c r="M55" t="s">
-        <v>76</v>
-      </c>
-      <c r="N55" t="s">
-        <v>104</v>
-      </c>
-      <c r="O55" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3076,19 +2965,19 @@
         <v>14</v>
       </c>
       <c r="C56" s="2">
-        <v>44734</v>
+        <v>44859</v>
       </c>
       <c r="D56" s="2">
-        <v>44733</v>
+        <v>44852</v>
       </c>
       <c r="E56">
-        <v>203.54</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F56">
-        <v>5100080013</v>
+        <v>5100082191</v>
       </c>
       <c r="G56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H56">
         <v>6160322020</v>
@@ -3100,139 +2989,49 @@
         <v>11310</v>
       </c>
       <c r="M56" t="s">
-        <v>77</v>
-      </c>
-      <c r="N56" t="s">
-        <v>105</v>
-      </c>
-      <c r="O56" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="2">
-        <v>44734</v>
-      </c>
-      <c r="D57" s="2">
-        <v>44733</v>
-      </c>
       <c r="E57">
-        <v>10.74</v>
-      </c>
-      <c r="F57">
-        <v>5100080013</v>
-      </c>
-      <c r="G57" t="s">
-        <v>44</v>
-      </c>
-      <c r="H57">
-        <v>6160322020</v>
-      </c>
-      <c r="I57" t="s">
-        <v>47</v>
-      </c>
-      <c r="J57">
-        <v>11310</v>
-      </c>
-      <c r="M57" t="s">
-        <v>77</v>
+        <v>34283.64</v>
       </c>
       <c r="N57" t="s">
-        <v>105</v>
-      </c>
-      <c r="O57" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="2">
-        <v>44734</v>
-      </c>
-      <c r="D58" s="2">
-        <v>44733</v>
-      </c>
       <c r="E58">
-        <v>71.739999999999995</v>
-      </c>
-      <c r="F58">
-        <v>5100080014</v>
-      </c>
-      <c r="G58" t="s">
-        <v>45</v>
-      </c>
-      <c r="H58">
-        <v>6160322020</v>
-      </c>
-      <c r="I58" t="s">
-        <v>47</v>
-      </c>
-      <c r="J58">
-        <v>11310</v>
-      </c>
-      <c r="M58" t="s">
-        <v>78</v>
+        <v>34283.64</v>
       </c>
       <c r="N58" t="s">
-        <v>106</v>
-      </c>
-      <c r="O58" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="2">
-        <v>44734</v>
-      </c>
-      <c r="D59" s="2">
-        <v>44733</v>
-      </c>
       <c r="E59">
-        <v>10.74</v>
-      </c>
-      <c r="F59">
-        <v>5100080014</v>
-      </c>
-      <c r="G59" t="s">
-        <v>45</v>
-      </c>
-      <c r="H59">
-        <v>6160322020</v>
-      </c>
-      <c r="I59" t="s">
-        <v>47</v>
-      </c>
-      <c r="J59">
-        <v>11310</v>
-      </c>
-      <c r="M59" t="s">
-        <v>78</v>
-      </c>
-      <c r="N59" t="s">
-        <v>106</v>
-      </c>
-      <c r="O59" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>34283.64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3240,43 +3039,60 @@
         <v>14</v>
       </c>
       <c r="E60">
-        <v>40397.57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+        <v>34283.64</v>
+      </c>
+      <c r="N60" t="s">
+        <v>106</v>
+      </c>
+      <c r="O60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="E61">
-        <v>40397.57</v>
+        <v>34283.64</v>
+      </c>
+      <c r="N61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="E62">
+        <v>34283.64</v>
+      </c>
+      <c r="N62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <v>34283.64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="E64">
+        <v>34283.64</v>
+      </c>
+      <c r="N64" t="s">
+        <v>106</v>
+      </c>
+      <c r="O64" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O61" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="13">
-      <filters blank="1">
-        <filter val="AV GETULIO VARGAS, 18-046 SA 110"/>
-        <filter val="AV IPIRANGA, 85 SA 14"/>
-        <filter val="AV MARIA DE JESUS CONDEIXA, 600 SA 331"/>
-        <filter val="AV MARIA DE JESUS CONDEIXA, 600 SA 333"/>
-        <filter val="AV MARIA DE JESUS CONDEIXA, 600 SA 335"/>
-        <filter val="AV MJ ANTONIO MARIANO BORBA, 802 CA A CT A"/>
-        <filter val="R CAMPOS SALES, 97 SA 01"/>
-        <filter val="R PASSEIO DOS FLAMBOYANTS, 60 TRÍADE - TORRE 2 SA 302"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="14">
-      <filters>
-        <filter val="ARACATUBA"/>
-        <filter val="ARARAQUARA"/>
-        <filter val="BAURU"/>
-        <filter val="CUTRALE"/>
-        <filter val="MARILIA"/>
-        <filter val="RIBEIRAO PRETO"/>
-        <filter val="SAO CARLOS"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Rateios/energia.xlsx
+++ b/Rateios/energia.xlsx
@@ -1,20 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loliveira\PycharmProjects\Fechamento\Automatizacao-de-Tarefas\Rateios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFED0EE3-F796-4935-9A54-972763014029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$50</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="112">
   <si>
     <t>Tipo de documento</t>
   </si>
@@ -61,97 +84,88 @@
     <t>RE</t>
   </si>
   <si>
-    <t>TITULO nº 040853066-U 23622 ENERGISA SUL-SUDESTE -</t>
-  </si>
-  <si>
-    <t>TITULO nº 269518080-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 268158506-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 266796710-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 266909083-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 268157134-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 267394420-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 268144550-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 268169244-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 267875577-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 268131868-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 265385293-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 156024005 22749 ELEKTRO ELETRICIDADE E S</t>
-  </si>
-  <si>
-    <t>TITULO nº 269192016-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 269221365-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 269847416-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 269914446-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 270304241-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 270313185-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 270313319-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 270386767-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 268539061-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 268593295-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 271445489-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 263529791-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 09/2022 21991 SUCOCITRICO CUTRALE LTDA</t>
-  </si>
-  <si>
-    <t>TITULO nº 270279247-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 270279248-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 270270627-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 268744103-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>TITULO nº 269623523-C 20517 CIA PAULISTA DE FORÇA</t>
+    <t>TITULO nº 296257000-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 045730152-U 23622 ENERGISA SUL-SUDESTE -</t>
+  </si>
+  <si>
+    <t>TITULO nº 273342553-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 296512923-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 296512924-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 296523468-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 296667609-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 296952483-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 297179108-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 297358364-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 297454721-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 299530305-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 299546266-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 299861420-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 299886100-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 300183185-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 300477325-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 298542461-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 298160959-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 299046490-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 297470725-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 175792555 22749 ELEKTRO ELETRICIDADE E S</t>
+  </si>
+  <si>
+    <t>TITULO nº 300077251-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 03/2023 21991 SUCOCITRICO CUTRALE LTDA</t>
+  </si>
+  <si>
+    <t>TITULO nº 299628402-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 299628403-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 299859646-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>TITULO nº 298503331-C 20517 CIA PAULISTA DE FORÇA</t>
   </si>
   <si>
     <t>615.03.1.1.22.02</t>
@@ -160,162 +174,144 @@
     <t>616.00.0.3.22.02</t>
   </si>
   <si>
-    <t>040853066</t>
-  </si>
-  <si>
-    <t>269518080</t>
-  </si>
-  <si>
-    <t>268158506</t>
-  </si>
-  <si>
-    <t>266796710</t>
-  </si>
-  <si>
-    <t>266909083</t>
-  </si>
-  <si>
-    <t>268157134</t>
-  </si>
-  <si>
-    <t>267394420</t>
-  </si>
-  <si>
-    <t>268144550</t>
-  </si>
-  <si>
-    <t>268169244</t>
-  </si>
-  <si>
-    <t>267875577</t>
-  </si>
-  <si>
-    <t>268131868</t>
-  </si>
-  <si>
-    <t>265385293</t>
-  </si>
-  <si>
-    <t>156024005</t>
-  </si>
-  <si>
-    <t>269192016</t>
-  </si>
-  <si>
-    <t>269221365</t>
-  </si>
-  <si>
-    <t>269847416</t>
-  </si>
-  <si>
-    <t>269914446</t>
-  </si>
-  <si>
-    <t>270304241</t>
-  </si>
-  <si>
-    <t>270313185</t>
-  </si>
-  <si>
-    <t>270313319</t>
-  </si>
-  <si>
-    <t>270386767</t>
-  </si>
-  <si>
-    <t>268539061</t>
-  </si>
-  <si>
-    <t>268593295</t>
-  </si>
-  <si>
-    <t>271445489</t>
-  </si>
-  <si>
-    <t>263529791</t>
-  </si>
-  <si>
-    <t>09/2022 2</t>
-  </si>
-  <si>
-    <t>270279247</t>
-  </si>
-  <si>
-    <t>270279248</t>
-  </si>
-  <si>
-    <t>270270627</t>
-  </si>
-  <si>
-    <t>268744103</t>
-  </si>
-  <si>
-    <t>269623523</t>
+    <t>296257000</t>
+  </si>
+  <si>
+    <t>045730152</t>
+  </si>
+  <si>
+    <t>273342553</t>
+  </si>
+  <si>
+    <t>296512923</t>
+  </si>
+  <si>
+    <t>296512924</t>
+  </si>
+  <si>
+    <t>296523468</t>
+  </si>
+  <si>
+    <t>296667609</t>
+  </si>
+  <si>
+    <t>296952483</t>
+  </si>
+  <si>
+    <t>297179108</t>
+  </si>
+  <si>
+    <t>297358364</t>
+  </si>
+  <si>
+    <t>297454721</t>
+  </si>
+  <si>
+    <t>299530305</t>
+  </si>
+  <si>
+    <t>299546266</t>
+  </si>
+  <si>
+    <t>299861420</t>
+  </si>
+  <si>
+    <t>299886100</t>
+  </si>
+  <si>
+    <t>300183185</t>
+  </si>
+  <si>
+    <t>300477325</t>
+  </si>
+  <si>
+    <t>298542461</t>
+  </si>
+  <si>
+    <t>298160959</t>
+  </si>
+  <si>
+    <t>299046490</t>
+  </si>
+  <si>
+    <t>297470725</t>
+  </si>
+  <si>
+    <t>175792555</t>
+  </si>
+  <si>
+    <t>300077251</t>
+  </si>
+  <si>
+    <t>03/2023 2</t>
+  </si>
+  <si>
+    <t>299628402</t>
+  </si>
+  <si>
+    <t>299628403</t>
+  </si>
+  <si>
+    <t>299859646</t>
+  </si>
+  <si>
+    <t>298503331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRT 139B, S/N1 </t>
+  </si>
+  <si>
+    <t>AV ALBERTO BENASSI, S/N1 KM 652 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R AROEIRAS, 511 </t>
+  </si>
+  <si>
+    <t>R PASSEIO DOS FLAMBOYANTS, 60 TRÍADE - TORRE 2 SA 302</t>
+  </si>
+  <si>
+    <t>CRT 110C, 149 DISTR DE GAS</t>
+  </si>
+  <si>
+    <t>R AFRICA, 111 AR GAS</t>
+  </si>
+  <si>
+    <t>CRT 183C MARILIA DIRCEU, S/N1 CH GAS BRASILI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRT 191B, 426 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRT 191A, 230 </t>
+  </si>
+  <si>
+    <t>CRT 165D, 46 GAS NATURAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDV BRIG FARIA LIMA, 297 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRT 162B BAIRRO RIBEIRAOZINHO, 118 </t>
+  </si>
+  <si>
+    <t>RDV ANTONIO MACHADO SANTANA, S/N1 KM 310 E 500M</t>
   </si>
   <si>
     <t>CRT 163B, S/N1 CT SP 304</t>
   </si>
   <si>
-    <t>R PASSEIO DOS FLAMBOYANTS, 60 TRÍADE - TORRE 2 SA 302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R AROEIRAS, 511 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRT 191A, 230 </t>
-  </si>
-  <si>
-    <t>R AFRICA, 111 AR GAS</t>
-  </si>
-  <si>
-    <t>AV ALBERTO BENASSI, S/N1 KM 652 1</t>
+    <t xml:space="preserve">R MARCOS TOQUETAO, S/N1 </t>
+  </si>
+  <si>
+    <t>R JOSE WILSON VICENTINO, S/N1 AZ BR153</t>
+  </si>
+  <si>
+    <t>CRT 108A, 65 LT 1A</t>
   </si>
   <si>
     <t>CRT 163B, S/N1 CT</t>
   </si>
   <si>
-    <t>CRT 110C, 149 DISTR DE GAS</t>
-  </si>
-  <si>
-    <t>CRT 183C MARILIA DIRCEU, S/N1 CH GAS BRASILI</t>
-  </si>
-  <si>
-    <t>CRT 108A, 65 LT 1A</t>
-  </si>
-  <si>
-    <t>CRT 165D, 46 GAS NATURAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRT 139B, S/N1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRT 162B BAIRRO RIBEIRAOZINHO, 118 </t>
-  </si>
-  <si>
-    <t>RDV ANTONIO MACHADO SANTANA, S/N1 KM 310 E 500M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RDV BRIG FARIA LIMA, 297 </t>
-  </si>
-  <si>
-    <t>VIA AUGUSTO BAMBOZZI, S/N1 DISTR DE GAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R DR AXEL HERMANN BRESLAU, 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R MARCOS TOQUETAO, S/N1 </t>
-  </si>
-  <si>
-    <t>R JOSE WILSON VICENTINO, S/N1 AZ BR153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R JOAO AUGUSTO CIRELLI, 670 </t>
-  </si>
-  <si>
-    <t>AV GETULIO VARGAS, 18-046 SA 110</t>
-  </si>
-  <si>
     <t>AV MARIA DE JESUS CONDEIXA, 600 SA 335</t>
   </si>
   <si>
@@ -328,74 +324,65 @@
     <t>AV MJ ANTONIO MARIANO BORBA, 802 CA A CT A</t>
   </si>
   <si>
-    <t>Rod Assis Chateaubriand S/N, KM 455 - Bairro: Vila Maria</t>
-  </si>
-  <si>
-    <t>TRIFASICO</t>
-  </si>
-  <si>
-    <t>(+) OUTROS ACRÉSCIMOS</t>
+    <t>ITAPOLIS</t>
+  </si>
+  <si>
+    <t>ARARAQUARA</t>
+  </si>
+  <si>
+    <t>SAO CARLOS</t>
+  </si>
+  <si>
+    <t>BILAC</t>
+  </si>
+  <si>
+    <t>LENCOIS PAULISTA</t>
+  </si>
+  <si>
+    <t>MARILIA</t>
+  </si>
+  <si>
+    <t>BOA ESPERANCA DO SUL</t>
+  </si>
+  <si>
+    <t>MATAO</t>
+  </si>
+  <si>
+    <t>IACANGA</t>
+  </si>
+  <si>
+    <t>RIBEIRAO PRETO</t>
   </si>
   <si>
     <t>IBITINGA</t>
   </si>
   <si>
-    <t>SAO CARLOS</t>
-  </si>
-  <si>
-    <t>ARARAQUARA</t>
-  </si>
-  <si>
-    <t>LENCOIS PAULISTA</t>
-  </si>
-  <si>
-    <t>BILAC</t>
-  </si>
-  <si>
-    <t>MARILIA</t>
+    <t>ARACATUBA</t>
+  </si>
+  <si>
+    <t>GUAICARA</t>
   </si>
   <si>
     <t>VALPARAISO</t>
   </si>
   <si>
-    <t>BOA ESPERANCA DO SUL</t>
-  </si>
-  <si>
-    <t>ITAPOLIS</t>
-  </si>
-  <si>
-    <t>IACANGA</t>
-  </si>
-  <si>
-    <t>RIBEIRAO PRETO</t>
-  </si>
-  <si>
-    <t>MATAO</t>
+    <t>MARÍLIA</t>
+  </si>
+  <si>
+    <t>CUTRALE</t>
   </si>
   <si>
     <t>BAURU</t>
-  </si>
-  <si>
-    <t>ARACATUBA</t>
-  </si>
-  <si>
-    <t>GUAICARA</t>
-  </si>
-  <si>
-    <t>DESCALVADO</t>
-  </si>
-  <si>
-    <t>COBRADO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,12 +399,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -447,23 +440,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -505,7 +507,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,9 +539,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -571,6 +591,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -746,14 +784,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38:O39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,7 +853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -805,16 +861,16 @@
         <v>14</v>
       </c>
       <c r="C2" s="2">
-        <v>44845</v>
+        <v>45017</v>
       </c>
       <c r="D2" s="2">
-        <v>44840</v>
+        <v>45013</v>
       </c>
       <c r="E2">
-        <v>202.36</v>
+        <v>814.43</v>
       </c>
       <c r="F2">
-        <v>5100081967</v>
+        <v>5100085670</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -823,16 +879,22 @@
         <v>6151122020</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>11310</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -840,16 +902,16 @@
         <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>44845</v>
+        <v>45017</v>
       </c>
       <c r="D3" s="2">
-        <v>44840</v>
+        <v>45013</v>
       </c>
       <c r="E3">
-        <v>10.26</v>
+        <v>16.28</v>
       </c>
       <c r="F3">
-        <v>5100081967</v>
+        <v>5100085670</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -858,16 +920,22 @@
         <v>6151122020</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J3">
         <v>11310</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -875,16 +943,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>44852</v>
+        <v>45026</v>
       </c>
       <c r="D4" s="2">
-        <v>44851</v>
+        <v>45021</v>
       </c>
       <c r="E4">
-        <v>831.3</v>
+        <v>312.19</v>
       </c>
       <c r="F4">
-        <v>5100082039</v>
+        <v>5100085621</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -893,16 +961,16 @@
         <v>6151122020</v>
       </c>
       <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4">
+        <v>11310</v>
+      </c>
+      <c r="M4" t="s">
         <v>46</v>
       </c>
-      <c r="J4">
-        <v>11310</v>
-      </c>
-      <c r="M4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -910,40 +978,34 @@
         <v>14</v>
       </c>
       <c r="C5" s="2">
-        <v>44843</v>
+        <v>45026</v>
       </c>
       <c r="D5" s="2">
-        <v>44842</v>
+        <v>45021</v>
       </c>
       <c r="E5">
-        <v>69.37</v>
+        <v>20.52</v>
       </c>
       <c r="F5">
-        <v>5100082040</v>
+        <v>5100085621</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>6151122020</v>
       </c>
       <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>11310</v>
+      </c>
+      <c r="M5" t="s">
         <v>46</v>
       </c>
-      <c r="J5">
-        <v>11310</v>
-      </c>
-      <c r="M5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -951,16 +1013,16 @@
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>44843</v>
+        <v>45028</v>
       </c>
       <c r="D6" s="2">
-        <v>44842</v>
+        <v>44876</v>
       </c>
       <c r="E6">
-        <v>12.24</v>
+        <v>32.85</v>
       </c>
       <c r="F6">
-        <v>5100082040</v>
+        <v>5100085639</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -969,22 +1031,19 @@
         <v>6151122020</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J6">
         <v>11310</v>
       </c>
       <c r="M6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>47</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -992,40 +1051,37 @@
         <v>14</v>
       </c>
       <c r="C7" s="2">
-        <v>44838</v>
+        <v>45028</v>
       </c>
       <c r="D7" s="2">
-        <v>44837</v>
+        <v>44876</v>
       </c>
       <c r="E7">
-        <v>117.31</v>
+        <v>9.9</v>
       </c>
       <c r="F7">
-        <v>5100081942</v>
+        <v>5100085639</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7">
         <v>6151122020</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>11310</v>
       </c>
       <c r="M7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" t="s">
-        <v>80</v>
-      </c>
-      <c r="O7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>47</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1033,16 +1089,16 @@
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>44839</v>
+        <v>45020</v>
       </c>
       <c r="D8" s="2">
-        <v>44838</v>
+        <v>45019</v>
       </c>
       <c r="E8">
-        <v>565.6</v>
+        <v>76.47</v>
       </c>
       <c r="F8">
-        <v>5100081943</v>
+        <v>5100085650</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
@@ -1051,22 +1107,22 @@
         <v>6151122020</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>11310</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1074,16 +1130,16 @@
         <v>14</v>
       </c>
       <c r="C9" s="2">
-        <v>44839</v>
+        <v>45020</v>
       </c>
       <c r="D9" s="2">
-        <v>44838</v>
+        <v>45019</v>
       </c>
       <c r="E9">
-        <v>-565.6</v>
+        <v>9.27</v>
       </c>
       <c r="F9">
-        <v>5100081996</v>
+        <v>5100085650</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -1092,22 +1148,22 @@
         <v>6151122020</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J9">
         <v>11310</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1115,16 +1171,16 @@
         <v>14</v>
       </c>
       <c r="C10" s="2">
-        <v>44838</v>
+        <v>45020</v>
       </c>
       <c r="D10" s="2">
-        <v>44837</v>
+        <v>45019</v>
       </c>
       <c r="E10">
-        <v>565.59</v>
+        <v>178.91</v>
       </c>
       <c r="F10">
-        <v>5100081997</v>
+        <v>5100085651</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
@@ -1133,22 +1189,22 @@
         <v>6151122020</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J10">
         <v>11310</v>
       </c>
       <c r="M10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1156,40 +1212,40 @@
         <v>14</v>
       </c>
       <c r="C11" s="2">
-        <v>44845</v>
+        <v>45020</v>
       </c>
       <c r="D11" s="2">
-        <v>44842</v>
+        <v>45019</v>
       </c>
       <c r="E11">
-        <v>367.19</v>
+        <v>21.68</v>
       </c>
       <c r="F11">
-        <v>5100081998</v>
+        <v>5100085651</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>6151122020</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <v>11310</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="O11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1197,40 +1253,40 @@
         <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>44840</v>
+        <v>45020</v>
       </c>
       <c r="D12" s="2">
-        <v>44839</v>
+        <v>45019</v>
       </c>
       <c r="E12">
-        <v>179.72</v>
+        <v>273.70999999999998</v>
       </c>
       <c r="F12">
-        <v>5100082010</v>
+        <v>5100085652</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12">
         <v>6151122020</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J12">
         <v>11310</v>
       </c>
       <c r="M12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N12" t="s">
-        <v>83</v>
-      </c>
-      <c r="O12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>76</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1238,16 +1294,16 @@
         <v>14</v>
       </c>
       <c r="C13" s="2">
-        <v>44840</v>
+        <v>45021</v>
       </c>
       <c r="D13" s="2">
-        <v>44839</v>
+        <v>45020</v>
       </c>
       <c r="E13">
-        <v>9.4</v>
+        <v>397.58</v>
       </c>
       <c r="F13">
-        <v>5100082010</v>
+        <v>5100085653</v>
       </c>
       <c r="G13" t="s">
         <v>21</v>
@@ -1256,22 +1312,22 @@
         <v>6151122020</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J13">
         <v>11310</v>
       </c>
       <c r="M13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1279,40 +1335,40 @@
         <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>44842</v>
+        <v>45021</v>
       </c>
       <c r="D14" s="2">
-        <v>44841</v>
+        <v>45020</v>
       </c>
       <c r="E14">
-        <v>690.61</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F14">
-        <v>5100082011</v>
+        <v>5100085653</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14">
         <v>6151122020</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J14">
         <v>11310</v>
       </c>
       <c r="M14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N14" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="O14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1320,16 +1376,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="2">
-        <v>44842</v>
+        <v>45022</v>
       </c>
       <c r="D15" s="2">
-        <v>44841</v>
+        <v>45021</v>
       </c>
       <c r="E15">
-        <v>84.23</v>
+        <v>155.97999999999999</v>
       </c>
       <c r="F15">
-        <v>5100082011</v>
+        <v>5100085654</v>
       </c>
       <c r="G15" t="s">
         <v>22</v>
@@ -1338,22 +1394,22 @@
         <v>6151122020</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>11310</v>
       </c>
       <c r="M15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="O15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1361,40 +1417,40 @@
         <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>44844</v>
+        <v>45022</v>
       </c>
       <c r="D16" s="2">
-        <v>44843</v>
+        <v>45021</v>
       </c>
       <c r="E16">
-        <v>69.37</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="F16">
-        <v>5100082012</v>
+        <v>5100085654</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16">
         <v>6151122020</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J16">
         <v>11310</v>
       </c>
       <c r="M16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1402,16 +1458,16 @@
         <v>14</v>
       </c>
       <c r="C17" s="2">
-        <v>44844</v>
+        <v>45022</v>
       </c>
       <c r="D17" s="2">
-        <v>44843</v>
+        <v>45021</v>
       </c>
       <c r="E17">
-        <v>12.24</v>
+        <v>168.96</v>
       </c>
       <c r="F17">
-        <v>5100082012</v>
+        <v>5100085655</v>
       </c>
       <c r="G17" t="s">
         <v>23</v>
@@ -1420,22 +1476,22 @@
         <v>6151122020</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J17">
         <v>11310</v>
       </c>
       <c r="M17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1443,16 +1499,16 @@
         <v>14</v>
       </c>
       <c r="C18" s="2">
-        <v>44842</v>
+        <v>45023</v>
       </c>
       <c r="D18" s="2">
-        <v>44840</v>
+        <v>45022</v>
       </c>
       <c r="E18">
-        <v>485.72</v>
+        <v>76.47</v>
       </c>
       <c r="F18">
-        <v>5100082013</v>
+        <v>5100085656</v>
       </c>
       <c r="G18" t="s">
         <v>24</v>
@@ -1461,22 +1517,22 @@
         <v>6151122020</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J18">
         <v>11310</v>
       </c>
       <c r="M18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1484,40 +1540,40 @@
         <v>14</v>
       </c>
       <c r="C19" s="2">
-        <v>44842</v>
+        <v>45023</v>
       </c>
       <c r="D19" s="2">
-        <v>44840</v>
+        <v>45022</v>
       </c>
       <c r="E19">
-        <v>8.699999999999999</v>
+        <v>399.89</v>
       </c>
       <c r="F19">
-        <v>5100082013</v>
+        <v>5100085657</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19">
         <v>6151122020</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J19">
         <v>11310</v>
       </c>
       <c r="M19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="O19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1525,40 +1581,40 @@
         <v>14</v>
       </c>
       <c r="C20" s="2">
-        <v>44842</v>
+        <v>45035</v>
       </c>
       <c r="D20" s="2">
-        <v>44841</v>
+        <v>45034</v>
       </c>
       <c r="E20">
-        <v>159.61</v>
+        <v>113</v>
       </c>
       <c r="F20">
-        <v>5100082014</v>
+        <v>5100085804</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H20">
         <v>6151122020</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J20">
         <v>11310</v>
       </c>
       <c r="M20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="O20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1566,16 +1622,16 @@
         <v>14</v>
       </c>
       <c r="C21" s="2">
-        <v>44851</v>
+        <v>45035</v>
       </c>
       <c r="D21" s="2">
-        <v>44824</v>
+        <v>45034</v>
       </c>
       <c r="E21">
-        <v>68.47</v>
+        <v>18</v>
       </c>
       <c r="F21">
-        <v>5100082049</v>
+        <v>5100085804</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -1584,16 +1640,22 @@
         <v>6151122020</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J21">
         <v>11310</v>
       </c>
       <c r="M21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>56</v>
+      </c>
+      <c r="N21" t="s">
+        <v>82</v>
+      </c>
+      <c r="O21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1601,34 +1663,40 @@
         <v>14</v>
       </c>
       <c r="C22" s="2">
-        <v>44851</v>
+        <v>45035</v>
       </c>
       <c r="D22" s="2">
-        <v>44824</v>
+        <v>45034</v>
       </c>
       <c r="E22">
-        <v>11.41</v>
+        <v>77.709999999999994</v>
       </c>
       <c r="F22">
-        <v>5100082049</v>
+        <v>5100085805</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H22">
         <v>6151122020</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J22">
         <v>11310</v>
       </c>
       <c r="M22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>57</v>
+      </c>
+      <c r="N22" t="s">
+        <v>83</v>
+      </c>
+      <c r="O22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1636,34 +1704,40 @@
         <v>14</v>
       </c>
       <c r="C23" s="2">
-        <v>44845</v>
+        <v>45036</v>
       </c>
       <c r="D23" s="2">
-        <v>44844</v>
+        <v>45035</v>
       </c>
       <c r="E23">
-        <v>175.44</v>
+        <v>244</v>
       </c>
       <c r="F23">
-        <v>5100082077</v>
+        <v>5100085806</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H23">
         <v>6151122020</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J23">
         <v>11310</v>
       </c>
       <c r="M23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>58</v>
+      </c>
+      <c r="N23" t="s">
+        <v>73</v>
+      </c>
+      <c r="O23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1671,34 +1745,40 @@
         <v>14</v>
       </c>
       <c r="C24" s="2">
-        <v>44845</v>
+        <v>45036</v>
       </c>
       <c r="D24" s="2">
-        <v>44844</v>
+        <v>45035</v>
       </c>
       <c r="E24">
-        <v>68.8</v>
+        <v>16.28</v>
       </c>
       <c r="F24">
-        <v>5100082077</v>
+        <v>5100085806</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H24">
         <v>6151122020</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J24">
         <v>11310</v>
       </c>
       <c r="M24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>58</v>
+      </c>
+      <c r="N24" t="s">
+        <v>73</v>
+      </c>
+      <c r="O24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1706,40 +1786,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="2">
-        <v>44849</v>
+        <v>45036</v>
       </c>
       <c r="D25" s="2">
-        <v>44848</v>
+        <v>45035</v>
       </c>
       <c r="E25">
-        <v>508.62</v>
+        <v>185.72</v>
       </c>
       <c r="F25">
-        <v>5100082154</v>
+        <v>5100085807</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H25">
         <v>6151122020</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J25">
         <v>11310</v>
       </c>
       <c r="M25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1747,16 +1827,16 @@
         <v>14</v>
       </c>
       <c r="C26" s="2">
-        <v>44849</v>
+        <v>45036</v>
       </c>
       <c r="D26" s="2">
-        <v>44848</v>
+        <v>45035</v>
       </c>
       <c r="E26">
-        <v>140.14</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="F26">
-        <v>5100082155</v>
+        <v>5100085807</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -1765,22 +1845,22 @@
         <v>6151122020</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J26">
         <v>11310</v>
       </c>
       <c r="M26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N26" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="O26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1788,40 +1868,40 @@
         <v>14</v>
       </c>
       <c r="C27" s="2">
-        <v>44849</v>
+        <v>45039</v>
       </c>
       <c r="D27" s="2">
-        <v>44848</v>
+        <v>45038</v>
       </c>
       <c r="E27">
-        <v>18</v>
+        <v>169.91</v>
       </c>
       <c r="F27">
-        <v>5100082155</v>
+        <v>5100085808</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>6151122020</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J27">
         <v>11310</v>
       </c>
       <c r="M27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1829,16 +1909,16 @@
         <v>14</v>
       </c>
       <c r="C28" s="2">
-        <v>44854</v>
+        <v>45039</v>
       </c>
       <c r="D28" s="2">
-        <v>44853</v>
+        <v>45038</v>
       </c>
       <c r="E28">
-        <v>147.1</v>
+        <v>11.37</v>
       </c>
       <c r="F28">
-        <v>5100082157</v>
+        <v>5100085808</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -1847,22 +1927,22 @@
         <v>6151122020</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J28">
         <v>11310</v>
       </c>
       <c r="M28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="O28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1870,40 +1950,40 @@
         <v>14</v>
       </c>
       <c r="C29" s="2">
-        <v>44854</v>
+        <v>45042</v>
       </c>
       <c r="D29" s="2">
-        <v>44853</v>
+        <v>45041</v>
       </c>
       <c r="E29">
-        <v>16.28</v>
+        <v>134.56</v>
       </c>
       <c r="F29">
-        <v>5100082157</v>
+        <v>5100085809</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>6151122020</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J29">
         <v>11310</v>
       </c>
       <c r="M29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1911,16 +1991,16 @@
         <v>14</v>
       </c>
       <c r="C30" s="2">
-        <v>44854</v>
+        <v>45042</v>
       </c>
       <c r="D30" s="2">
-        <v>44853</v>
+        <v>45041</v>
       </c>
       <c r="E30">
-        <v>97.13</v>
+        <v>21.55</v>
       </c>
       <c r="F30">
-        <v>5100082158</v>
+        <v>5100085809</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
@@ -1929,22 +2009,22 @@
         <v>6151122020</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J30">
         <v>11310</v>
       </c>
       <c r="M30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="O30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1952,40 +2032,40 @@
         <v>14</v>
       </c>
       <c r="C31" s="2">
-        <v>44854</v>
+        <v>45030</v>
       </c>
       <c r="D31" s="2">
-        <v>44853</v>
+        <v>45029</v>
       </c>
       <c r="E31">
-        <v>4.63</v>
+        <v>99.33</v>
       </c>
       <c r="F31">
-        <v>5100082158</v>
+        <v>5100085714</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>6151122020</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J31">
         <v>11310</v>
       </c>
       <c r="M31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1993,16 +2073,16 @@
         <v>14</v>
       </c>
       <c r="C32" s="2">
-        <v>44855</v>
+        <v>45030</v>
       </c>
       <c r="D32" s="2">
-        <v>44854</v>
+        <v>45029</v>
       </c>
       <c r="E32">
-        <v>158.19</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="F32">
-        <v>5100082159</v>
+        <v>5100085714</v>
       </c>
       <c r="G32" t="s">
         <v>32</v>
@@ -2011,22 +2091,22 @@
         <v>6151122020</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J32">
         <v>11310</v>
       </c>
       <c r="M32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N32" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="O32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2034,40 +2114,40 @@
         <v>14</v>
       </c>
       <c r="C33" s="2">
-        <v>44855</v>
+        <v>45029</v>
       </c>
       <c r="D33" s="2">
-        <v>44854</v>
+        <v>45028</v>
       </c>
       <c r="E33">
-        <v>10.74</v>
+        <v>110.88</v>
       </c>
       <c r="F33">
-        <v>5100082159</v>
+        <v>5100085715</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>6151122020</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J33">
         <v>11310</v>
       </c>
       <c r="M33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N33" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2075,16 +2155,16 @@
         <v>14</v>
       </c>
       <c r="C34" s="2">
-        <v>44855</v>
+        <v>45029</v>
       </c>
       <c r="D34" s="2">
-        <v>44854</v>
+        <v>45028</v>
       </c>
       <c r="E34">
-        <v>259.53</v>
+        <v>4.8</v>
       </c>
       <c r="F34">
-        <v>5100082160</v>
+        <v>5100085715</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
@@ -2093,22 +2173,22 @@
         <v>6151122020</v>
       </c>
       <c r="I34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J34">
         <v>11310</v>
       </c>
       <c r="M34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N34" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="O34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2116,16 +2196,16 @@
         <v>14</v>
       </c>
       <c r="C35" s="2">
-        <v>44855</v>
+        <v>45032</v>
       </c>
       <c r="D35" s="2">
-        <v>44854</v>
+        <v>45031</v>
       </c>
       <c r="E35">
-        <v>69.37</v>
+        <v>566.84</v>
       </c>
       <c r="F35">
-        <v>5100082161</v>
+        <v>5100085716</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
@@ -2134,22 +2214,22 @@
         <v>6151122020</v>
       </c>
       <c r="I35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J35">
         <v>11310</v>
       </c>
       <c r="M35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N35" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2157,40 +2237,40 @@
         <v>14</v>
       </c>
       <c r="C36" s="2">
-        <v>44855</v>
+        <v>45024</v>
       </c>
       <c r="D36" s="2">
-        <v>44854</v>
+        <v>45023</v>
       </c>
       <c r="E36">
-        <v>7.94</v>
+        <v>60.74</v>
       </c>
       <c r="F36">
-        <v>5100082161</v>
+        <v>5100085659</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>6151122020</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J36">
         <v>11310</v>
       </c>
       <c r="M36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2198,16 +2278,16 @@
         <v>14</v>
       </c>
       <c r="C37" s="2">
-        <v>44856</v>
+        <v>45024</v>
       </c>
       <c r="D37" s="2">
-        <v>44855</v>
+        <v>45023</v>
       </c>
       <c r="E37">
-        <v>188.74</v>
+        <v>12.25</v>
       </c>
       <c r="F37">
-        <v>5100082162</v>
+        <v>5100085659</v>
       </c>
       <c r="G37" t="s">
         <v>35</v>
@@ -2216,22 +2296,22 @@
         <v>6151122020</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J37">
         <v>11310</v>
       </c>
       <c r="M37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N37" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2239,40 +2319,34 @@
         <v>14</v>
       </c>
       <c r="C38" s="2">
-        <v>44856</v>
+        <v>45029</v>
       </c>
       <c r="D38" s="2">
-        <v>44855</v>
+        <v>45027</v>
       </c>
       <c r="E38">
-        <v>10.16</v>
+        <v>474.76</v>
       </c>
       <c r="F38">
-        <v>5100082162</v>
+        <v>5100085722</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>6151122020</v>
       </c>
       <c r="I38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J38">
         <v>11310</v>
       </c>
       <c r="M38" t="s">
-        <v>68</v>
-      </c>
-      <c r="N38" t="s">
-        <v>95</v>
-      </c>
-      <c r="O38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2280,16 +2354,16 @@
         <v>14</v>
       </c>
       <c r="C39" s="2">
-        <v>44846</v>
+        <v>45029</v>
       </c>
       <c r="D39" s="2">
-        <v>44845</v>
+        <v>45027</v>
       </c>
       <c r="E39">
-        <v>69.37</v>
+        <v>161.91999999999999</v>
       </c>
       <c r="F39">
-        <v>5100082060</v>
+        <v>5100085722</v>
       </c>
       <c r="G39" t="s">
         <v>36</v>
@@ -2298,22 +2372,16 @@
         <v>6151122020</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J39">
         <v>11310</v>
       </c>
       <c r="M39" t="s">
-        <v>69</v>
-      </c>
-      <c r="N39" t="s">
-        <v>96</v>
-      </c>
-      <c r="O39" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2321,40 +2389,37 @@
         <v>14</v>
       </c>
       <c r="C40" s="2">
-        <v>44846</v>
+        <v>45037</v>
       </c>
       <c r="D40" s="2">
-        <v>44845</v>
+        <v>45036</v>
       </c>
       <c r="E40">
-        <v>8.949999999999999</v>
+        <v>202.63</v>
       </c>
       <c r="F40">
-        <v>5100082060</v>
+        <v>5100085838</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>6151122020</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J40">
         <v>11310</v>
       </c>
       <c r="M40" t="s">
-        <v>69</v>
-      </c>
-      <c r="N40" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="O40" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2362,16 +2427,16 @@
         <v>14</v>
       </c>
       <c r="C41" s="2">
-        <v>44846</v>
+        <v>45037</v>
       </c>
       <c r="D41" s="2">
-        <v>44845</v>
+        <v>45036</v>
       </c>
       <c r="E41">
-        <v>114.48</v>
+        <v>9.64</v>
       </c>
       <c r="F41">
-        <v>5100082061</v>
+        <v>5100085838</v>
       </c>
       <c r="G41" t="s">
         <v>37</v>
@@ -2380,121 +2445,115 @@
         <v>6151122020</v>
       </c>
       <c r="I41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41">
+        <v>11310</v>
+      </c>
+      <c r="M41" t="s">
+        <v>67</v>
+      </c>
+      <c r="O41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45027</v>
+      </c>
+      <c r="D42" s="2">
+        <v>45027</v>
+      </c>
+      <c r="E42">
+        <v>49234.2</v>
+      </c>
+      <c r="F42">
+        <v>5100085649</v>
+      </c>
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42">
+        <v>6160322020</v>
+      </c>
+      <c r="I42" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42">
+        <v>11310</v>
+      </c>
+      <c r="M42" t="s">
+        <v>68</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45036</v>
+      </c>
+      <c r="D43" s="2">
+        <v>45035</v>
+      </c>
+      <c r="E43">
+        <v>301.17</v>
+      </c>
+      <c r="F43">
+        <v>5100085745</v>
+      </c>
+      <c r="G43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43">
+        <v>6160322020</v>
+      </c>
+      <c r="I43" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43">
+        <v>11310</v>
+      </c>
+      <c r="M43" t="s">
+        <v>69</v>
+      </c>
+      <c r="N43" t="s">
+        <v>91</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
         <v>46</v>
       </c>
-      <c r="J41">
-        <v>11310</v>
-      </c>
-      <c r="M41" t="s">
-        <v>70</v>
-      </c>
-      <c r="N41" t="s">
-        <v>97</v>
-      </c>
-      <c r="O41" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="2">
-        <v>44846</v>
-      </c>
-      <c r="D42" s="2">
-        <v>44845</v>
-      </c>
-      <c r="E42">
-        <v>5.46</v>
-      </c>
-      <c r="F42">
-        <v>5100082061</v>
-      </c>
-      <c r="G42" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42">
-        <v>6151122020</v>
-      </c>
-      <c r="I42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J42">
-        <v>11310</v>
-      </c>
-      <c r="M42" t="s">
-        <v>70</v>
-      </c>
-      <c r="N42" t="s">
-        <v>97</v>
-      </c>
-      <c r="O42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="2">
-        <v>44862</v>
-      </c>
-      <c r="D43" s="2">
-        <v>44861</v>
-      </c>
-      <c r="E43">
-        <v>155.42</v>
-      </c>
-      <c r="F43">
-        <v>5100082361</v>
-      </c>
-      <c r="G43" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43">
-        <v>6151122020</v>
-      </c>
-      <c r="I43" t="s">
-        <v>46</v>
-      </c>
-      <c r="J43">
-        <v>11310</v>
-      </c>
-      <c r="M43" t="s">
-        <v>71</v>
-      </c>
-      <c r="N43" t="s">
-        <v>98</v>
-      </c>
-      <c r="O43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
       <c r="B44" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="2">
-        <v>44838</v>
+        <v>45036</v>
       </c>
       <c r="D44" s="2">
-        <v>44813</v>
+        <v>45035</v>
       </c>
       <c r="E44">
-        <v>114.24</v>
+        <v>11.37</v>
       </c>
       <c r="F44">
-        <v>5100081928</v>
+        <v>5100085745</v>
       </c>
       <c r="G44" t="s">
         <v>39</v>
@@ -2503,80 +2562,80 @@
         <v>6160322020</v>
       </c>
       <c r="I44" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44">
+        <v>11310</v>
+      </c>
+      <c r="M44" t="s">
+        <v>69</v>
+      </c>
+      <c r="N44" t="s">
+        <v>91</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>47</v>
       </c>
-      <c r="J44">
-        <v>11310</v>
-      </c>
-      <c r="M44" t="s">
-        <v>72</v>
-      </c>
-      <c r="N44" t="s">
-        <v>99</v>
-      </c>
-      <c r="O44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
       <c r="B45" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="2">
-        <v>44838</v>
+        <v>45036</v>
       </c>
       <c r="D45" s="2">
-        <v>44813</v>
+        <v>45035</v>
       </c>
       <c r="E45">
-        <v>10.58</v>
+        <v>264.60000000000002</v>
       </c>
       <c r="F45">
-        <v>5100081928</v>
+        <v>5100085746</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H45">
         <v>6160322020</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J45">
         <v>11310</v>
       </c>
       <c r="M45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N45" t="s">
-        <v>99</v>
-      </c>
-      <c r="O45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>92</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="2">
-        <v>44844</v>
+        <v>45036</v>
       </c>
       <c r="D46" s="2">
-        <v>44844</v>
+        <v>45035</v>
       </c>
       <c r="E46">
-        <v>26882.16</v>
+        <v>11.37</v>
       </c>
       <c r="F46">
-        <v>5100081969</v>
+        <v>5100085746</v>
       </c>
       <c r="G46" t="s">
         <v>40</v>
@@ -2585,33 +2644,39 @@
         <v>6160322020</v>
       </c>
       <c r="I46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J46">
         <v>11310</v>
       </c>
       <c r="M46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>70</v>
+      </c>
+      <c r="N46" t="s">
+        <v>92</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="2">
-        <v>44855</v>
+        <v>45036</v>
       </c>
       <c r="D47" s="2">
-        <v>44854</v>
+        <v>45035</v>
       </c>
       <c r="E47">
-        <v>124.71</v>
+        <v>192.21</v>
       </c>
       <c r="F47">
-        <v>5100082147</v>
+        <v>5100085747</v>
       </c>
       <c r="G47" t="s">
         <v>41</v>
@@ -2620,39 +2685,39 @@
         <v>6160322020</v>
       </c>
       <c r="I47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J47">
         <v>11310</v>
       </c>
       <c r="M47" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N47" t="s">
-        <v>100</v>
-      </c>
-      <c r="O47" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>93</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="2">
-        <v>44855</v>
+        <v>45036</v>
       </c>
       <c r="D48" s="2">
-        <v>44854</v>
+        <v>45035</v>
       </c>
       <c r="E48">
-        <v>10.74</v>
+        <v>11.37</v>
       </c>
       <c r="F48">
-        <v>5100082147</v>
+        <v>5100085747</v>
       </c>
       <c r="G48" t="s">
         <v>41</v>
@@ -2661,39 +2726,39 @@
         <v>6160322020</v>
       </c>
       <c r="I48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J48">
         <v>11310</v>
       </c>
       <c r="M48" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N48" t="s">
-        <v>100</v>
-      </c>
-      <c r="O48" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>93</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
       </c>
       <c r="C49" s="2">
-        <v>44855</v>
+        <v>45030</v>
       </c>
       <c r="D49" s="2">
-        <v>44854</v>
+        <v>45029</v>
       </c>
       <c r="E49">
-        <v>233.84</v>
+        <v>485.84</v>
       </c>
       <c r="F49">
-        <v>5100082148</v>
+        <v>5100085713</v>
       </c>
       <c r="G49" t="s">
         <v>42</v>
@@ -2702,39 +2767,39 @@
         <v>6160322020</v>
       </c>
       <c r="I49" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J49">
         <v>11310</v>
       </c>
       <c r="M49" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N49" t="s">
-        <v>101</v>
-      </c>
-      <c r="O49" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>94</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="2">
-        <v>44855</v>
+        <v>45030</v>
       </c>
       <c r="D50" s="2">
-        <v>44854</v>
+        <v>45029</v>
       </c>
       <c r="E50">
-        <v>10.74</v>
+        <v>58.88</v>
       </c>
       <c r="F50">
-        <v>5100082148</v>
+        <v>5100085713</v>
       </c>
       <c r="G50" t="s">
         <v>42</v>
@@ -2743,356 +2808,23 @@
         <v>6160322020</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J50">
         <v>11310</v>
       </c>
       <c r="M50" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N50" t="s">
-        <v>101</v>
-      </c>
-      <c r="O50" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="2">
-        <v>44855</v>
-      </c>
-      <c r="D51" s="2">
-        <v>44854</v>
-      </c>
-      <c r="E51">
-        <v>113.98</v>
-      </c>
-      <c r="F51">
-        <v>5100082149</v>
-      </c>
-      <c r="G51" t="s">
-        <v>43</v>
-      </c>
-      <c r="H51">
-        <v>6160322020</v>
-      </c>
-      <c r="I51" t="s">
-        <v>47</v>
-      </c>
-      <c r="J51">
-        <v>11310</v>
-      </c>
-      <c r="M51" t="s">
-        <v>76</v>
-      </c>
-      <c r="N51" t="s">
-        <v>102</v>
-      </c>
-      <c r="O51" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="2">
-        <v>44855</v>
-      </c>
-      <c r="D52" s="2">
-        <v>44854</v>
-      </c>
-      <c r="E52">
-        <v>10.74</v>
-      </c>
-      <c r="F52">
-        <v>5100082149</v>
-      </c>
-      <c r="G52" t="s">
-        <v>43</v>
-      </c>
-      <c r="H52">
-        <v>6160322020</v>
-      </c>
-      <c r="I52" t="s">
-        <v>47</v>
-      </c>
-      <c r="J52">
-        <v>11310</v>
-      </c>
-      <c r="M52" t="s">
-        <v>76</v>
-      </c>
-      <c r="N52" t="s">
-        <v>102</v>
-      </c>
-      <c r="O52" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="2">
-        <v>44848</v>
-      </c>
-      <c r="D53" s="2">
-        <v>44847</v>
-      </c>
-      <c r="E53">
-        <v>230.37</v>
-      </c>
-      <c r="F53">
-        <v>5100082152</v>
-      </c>
-      <c r="G53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H53">
-        <v>6160322020</v>
-      </c>
-      <c r="I53" t="s">
-        <v>47</v>
-      </c>
-      <c r="J53">
-        <v>11310</v>
-      </c>
-      <c r="M53" t="s">
-        <v>77</v>
-      </c>
-      <c r="N53" t="s">
-        <v>103</v>
-      </c>
-      <c r="O53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="2">
-        <v>44848</v>
-      </c>
-      <c r="D54" s="2">
-        <v>44847</v>
-      </c>
-      <c r="E54">
-        <v>30.76</v>
-      </c>
-      <c r="F54">
-        <v>5100082152</v>
-      </c>
-      <c r="G54" t="s">
-        <v>44</v>
-      </c>
-      <c r="H54">
-        <v>6160322020</v>
-      </c>
-      <c r="I54" t="s">
-        <v>47</v>
-      </c>
-      <c r="J54">
-        <v>11310</v>
-      </c>
-      <c r="M54" t="s">
-        <v>77</v>
-      </c>
-      <c r="N54" t="s">
-        <v>103</v>
-      </c>
-      <c r="O54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="2">
-        <v>44859</v>
-      </c>
-      <c r="D55" s="2">
-        <v>44852</v>
-      </c>
-      <c r="E55">
-        <v>312.24</v>
-      </c>
-      <c r="F55">
-        <v>5100082191</v>
-      </c>
-      <c r="G55" t="s">
-        <v>45</v>
-      </c>
-      <c r="H55">
-        <v>6160322020</v>
-      </c>
-      <c r="I55" t="s">
-        <v>47</v>
-      </c>
-      <c r="J55">
-        <v>11310</v>
-      </c>
-      <c r="M55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="2">
-        <v>44859</v>
-      </c>
-      <c r="D56" s="2">
-        <v>44852</v>
-      </c>
-      <c r="E56">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="F56">
-        <v>5100082191</v>
-      </c>
-      <c r="G56" t="s">
-        <v>45</v>
-      </c>
-      <c r="H56">
-        <v>6160322020</v>
-      </c>
-      <c r="I56" t="s">
-        <v>47</v>
-      </c>
-      <c r="J56">
-        <v>11310</v>
-      </c>
-      <c r="M56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57">
-        <v>34283.64</v>
-      </c>
-      <c r="N57" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58">
-        <v>34283.64</v>
-      </c>
-      <c r="N58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59">
-        <v>34283.64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60">
-        <v>34283.64</v>
-      </c>
-      <c r="N60" t="s">
-        <v>106</v>
-      </c>
-      <c r="O60" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="E61">
-        <v>34283.64</v>
-      </c>
-      <c r="N61" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="E62">
-        <v>34283.64</v>
-      </c>
-      <c r="N62" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="E63">
-        <v>34283.64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="E64">
-        <v>34283.64</v>
-      </c>
-      <c r="N64" t="s">
-        <v>106</v>
-      </c>
-      <c r="O64" t="s">
-        <v>123</v>
+        <v>94</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>